--- a/biology/Médecine/Infirmier_praticien_spécialisé/Infirmier_praticien_spécialisé.xlsx
+++ b/biology/Médecine/Infirmier_praticien_spécialisé/Infirmier_praticien_spécialisé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infirmier_praticien_sp%C3%A9cialis%C3%A9</t>
+          <t>Infirmier_praticien_spécialisé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'infirmier praticien spécialisé ou infirmière praticienne spécialisée (IPS) est, au Canada, une infirmière ou un infirmier[1] qui possèdent une expérience clinique dans un domaine spécifique et qui ont reçu une formation avancée de 2e cycle en sciences infirmières et en sciences médicales.
-L'infirmier en pratique avancée ou infirmière en pratique avancée[2] (IPA) est en France est IDE et travaille en milieu interprofessionnel dans une équipe de soins primaires (ESP) ou dans une Maison de santé pluridisciplinaire (MSPP). Elle est titulaire d'un diplôme d'État[3] reconnu au niveau 7 du Répertoire national des certifications professionnelles (RNCP)[4]. 
-Bien que les soins fournis par les IPS soient jugés grandement sécuritaires[5], leur champ de pratique varie encore selon l'endroit où elles pratiquent[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'infirmier praticien spécialisé ou infirmière praticienne spécialisée (IPS) est, au Canada, une infirmière ou un infirmier qui possèdent une expérience clinique dans un domaine spécifique et qui ont reçu une formation avancée de 2e cycle en sciences infirmières et en sciences médicales.
+L'infirmier en pratique avancée ou infirmière en pratique avancée (IPA) est en France est IDE et travaille en milieu interprofessionnel dans une équipe de soins primaires (ESP) ou dans une Maison de santé pluridisciplinaire (MSPP). Elle est titulaire d'un diplôme d'État reconnu au niveau 7 du Répertoire national des certifications professionnelles (RNCP). 
+Bien que les soins fournis par les IPS soient jugés grandement sécuritaires, leur champ de pratique varie encore selon l'endroit où elles pratiquent.
 Elles combinent à la fois l’exercice d’une pratique infirmière avancée et l’exercice d'activités médicales : diagnostic (restreint selon la classe de spécialité/ l'endroit où l'IPS pratique), prescrire des examens diagnostiques, utiliser des techniques diagnostiques invasives, prescrire des médicaments et d’autres substances, prescrire des traitements médicaux et utiliser des techniques ou appliquer des traitements médicaux invasifs. Elles détiennent des connaissances et des habiletés de niveau expert pour réaliser un processus de raisonnement clinique visant à répondre aux besoins de santé d’une clientèle particulière. Elles ont également réussi un examen professionnel de spécialité en vue de détenir un certificat de spécialiste pour une catégorie de clientèle et travaillent en partenariat avec un ou plusieurs médecins qui exercent dans le domaine de soins visé par sa pratique.
-C'est différent des Infirmières Déléguées à la Santé Publique (IDSP) en France qui travaillent dans le dispositif ASALÉE[7] depuis 2004, qui ont une formation courte par la structure.
+C'est différent des Infirmières Déléguées à la Santé Publique (IDSP) en France qui travaillent dans le dispositif ASALÉE depuis 2004, qui ont une formation courte par la structure.
 </t>
         </is>
       </c>
